--- a/database/dummydata.xlsx
+++ b/database/dummydata.xlsx
@@ -393,13 +393,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -412,18 +412,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
@@ -438,18 +426,6 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>50.1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>70.5</v>
-      </c>
       <c r="H2" s="1">
         <v>30</v>
       </c>
@@ -464,18 +440,6 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>49.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>70.400000000000006</v>
-      </c>
       <c r="H3" s="1">
         <v>29</v>
       </c>
@@ -490,18 +454,6 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>54.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>71.5</v>
-      </c>
       <c r="H4" s="1">
         <v>38</v>
       </c>
@@ -516,18 +468,6 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>56.2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>69.5</v>
-      </c>
       <c r="H5" s="1">
         <v>50</v>
       </c>
@@ -542,18 +482,6 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>49.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>69.8</v>
-      </c>
       <c r="H6" s="1">
         <v>36</v>
       </c>
@@ -568,18 +496,6 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>48.6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>67.5</v>
-      </c>
       <c r="H7" s="1">
         <v>35</v>
       </c>
@@ -594,18 +510,6 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>50.2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>70.2</v>
-      </c>
       <c r="H8" s="1">
         <v>37</v>
       </c>
@@ -620,18 +524,6 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>53.2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>71.5</v>
-      </c>
       <c r="H9" s="1">
         <v>39</v>
       </c>
@@ -646,18 +538,6 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>54.1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>72.2</v>
-      </c>
       <c r="H10" s="1">
         <v>46</v>
       </c>
@@ -672,18 +552,6 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>50.9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>69.5</v>
-      </c>
       <c r="H11" s="1">
         <v>53</v>
       </c>
@@ -698,18 +566,6 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>48.5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>67.5</v>
-      </c>
       <c r="H12" s="1">
         <v>54</v>
       </c>
@@ -724,18 +580,6 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>48.6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>70.5</v>
-      </c>
       <c r="H13" s="1">
         <v>54</v>
       </c>
@@ -750,18 +594,6 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>49.5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>70.3</v>
-      </c>
       <c r="H14" s="1">
         <v>53</v>
       </c>
@@ -776,18 +608,6 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>51.2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>71.7</v>
-      </c>
       <c r="H15" s="1">
         <v>53</v>
       </c>
@@ -802,18 +622,6 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>51.8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>72.599999999999994</v>
-      </c>
       <c r="H16" s="1">
         <v>20</v>
       </c>
@@ -828,18 +636,6 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>53.4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>69.5</v>
-      </c>
       <c r="H17" s="1">
         <v>51</v>
       </c>
@@ -854,18 +650,6 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>55.6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1">
-        <v>69</v>
-      </c>
       <c r="H18" s="1">
         <v>50</v>
       </c>
@@ -880,18 +664,6 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>49.5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1">
-        <v>70.8</v>
-      </c>
       <c r="H19" s="1">
         <v>45</v>
       </c>
@@ -906,18 +678,6 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>50.3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="1">
-        <v>72.599999999999994</v>
-      </c>
       <c r="H20" s="1">
         <v>48</v>
       </c>
@@ -932,18 +692,6 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>51.8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1">
-        <v>68.900000000000006</v>
-      </c>
       <c r="H21" s="1">
         <v>36</v>
       </c>
@@ -958,18 +706,6 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>55.2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>70</v>
-      </c>
       <c r="H22" s="1">
         <v>38</v>
       </c>
@@ -984,18 +720,6 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>48.5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>72</v>
-      </c>
       <c r="H23" s="1">
         <v>39</v>
       </c>
@@ -1010,18 +734,6 @@
       <c r="C24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>49.6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1">
-        <v>69.8</v>
-      </c>
       <c r="H24" s="1">
         <v>40</v>
       </c>
@@ -1036,18 +748,6 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>48.6</v>
-      </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1">
-        <v>69.099999999999994</v>
-      </c>
       <c r="H25" s="1">
         <v>41</v>
       </c>
@@ -1062,18 +762,6 @@
       <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>47.9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1">
-        <v>70.5</v>
-      </c>
       <c r="H26" s="1">
         <v>36</v>
       </c>
@@ -1088,18 +776,6 @@
       <c r="C27" t="s">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>52.4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1">
-        <v>72.5</v>
-      </c>
       <c r="H27" s="1">
         <v>39</v>
       </c>
@@ -1114,18 +790,6 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>53.6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1">
-        <v>73.2</v>
-      </c>
       <c r="H28" s="1">
         <v>41</v>
       </c>
@@ -1140,18 +804,6 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>51.8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1">
-        <v>74.5</v>
-      </c>
       <c r="H29" s="1">
         <v>46</v>
       </c>
@@ -1165,18 +817,6 @@
       </c>
       <c r="C30" t="s">
         <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>50.5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1">
-        <v>69.8</v>
       </c>
       <c r="H30" s="1">
         <v>48</v>
@@ -1193,12 +833,438 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>50.1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>49.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>54.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>56.2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>49.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>48.6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>50.2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>53.2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>54.1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>50.9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>48.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>48.6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>49.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>51.2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>51.8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>53.4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>55.6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>49.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>50.3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>51.8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>55.2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>48.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>49.6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>48.6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>47.9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>52.4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>53.6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>51.8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>50.5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>69.8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
